--- a/CalculateClientSecurityHash/Data/Config.xlsx
+++ b/CalculateClientSecurityHash/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandro-Brito\Documents\UiPath\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCAE52C-7E14-41AB-9C75-8C915B7BFE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC4CF47-665A-450E-B9B0-58AD929D668B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1621,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
